--- a/documents/#02.基本設計/テーブル一覧.xlsx
+++ b/documents/#02.基本設計/テーブル一覧.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\仕事関係\WORK_GROUP\#11.Java課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\#02.基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C94D7C-EF06-413F-A1CC-E87F5DE90344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5544C6-E385-4EF1-B87D-5E9857F75FB6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="600" windowWidth="18270" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-250" yWindow="260" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="6" r:id="rId1"/>
+    <sheet name="テーブル一覧" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル一覧!$A$1:$BU$101</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$A$1:$BU$101</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">テーブル一覧!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">原紙!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -103,13 +106,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇〇図</t>
+    <t>〇〇設計</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇〇設計</t>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
+    <t>システムID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○○図</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本設計</t>
+    <rPh sb="0" eb="4">
+      <t>キホンセッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -156,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -381,17 +405,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -596,17 +609,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -638,6 +640,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -645,9 +658,36 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -658,9 +698,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -668,22 +706,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
@@ -693,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -702,152 +725,158 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,8 +1163,8 @@
   </sheetPr>
   <dimension ref="A1:BU101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AM5"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AT4" sqref="AT4:BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -1218,324 +1247,326 @@
     </row>
     <row r="2" spans="1:73" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="53" t="s">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR2" s="9"/>
+      <c r="BS2" s="9"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="6"/>
+    </row>
+    <row r="3" spans="1:73" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="35"/>
+      <c r="BU3" s="6"/>
+    </row>
+    <row r="4" spans="1:73" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="32" t="s">
-        <v>7</v>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="27" t="s">
+        <v>11</v>
       </c>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="40"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AW2" s="24"/>
-      <c r="AX2" s="24"/>
-      <c r="AY2" s="24"/>
-      <c r="AZ2" s="24"/>
-      <c r="BA2" s="24"/>
-      <c r="BB2" s="24"/>
-      <c r="BC2" s="24"/>
-      <c r="BD2" s="24"/>
-      <c r="BE2" s="24"/>
-      <c r="BF2" s="45"/>
-      <c r="BG2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="10"/>
-      <c r="BK2" s="10"/>
-      <c r="BL2" s="10"/>
-      <c r="BM2" s="10"/>
-      <c r="BN2" s="10"/>
-      <c r="BO2" s="10"/>
-      <c r="BP2" s="10"/>
-      <c r="BQ2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="6"/>
-    </row>
-    <row r="3" spans="1:73" ht="15" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="47"/>
-      <c r="BG3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="12"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="12"/>
-      <c r="BO3" s="12"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="16"/>
-      <c r="BR3" s="17"/>
-      <c r="BS3" s="17"/>
-      <c r="BT3" s="15"/>
-      <c r="BU3" s="6"/>
-    </row>
-    <row r="4" spans="1:73" ht="15" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="34" t="s">
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="48"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26"/>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="11" t="s">
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="12"/>
-      <c r="BM4" s="12"/>
-      <c r="BN4" s="12"/>
-      <c r="BO4" s="12"/>
-      <c r="BP4" s="12"/>
-      <c r="BQ4" s="16"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="15"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
       <c r="BU4" s="6"/>
     </row>
     <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="58"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="51"/>
-      <c r="BG5" s="13" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="BH5" s="13"/>
-      <c r="BI5" s="13"/>
-      <c r="BJ5" s="14"/>
-      <c r="BK5" s="14"/>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14"/>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="14"/>
-      <c r="BP5" s="14"/>
-      <c r="BQ5" s="18"/>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="19"/>
-      <c r="BT5" s="20"/>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="38"/>
       <c r="BU5" s="6"/>
     </row>
     <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
@@ -2203,29 +2234,1139 @@
       <c r="BT101" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G4:V5"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="G2:V3"/>
+    <mergeCell ref="AO2:AS3"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="BG5:BI5"/>
+    <mergeCell ref="BG3:BI3"/>
+    <mergeCell ref="AT2:BF3"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="BQ3:BT5"/>
+    <mergeCell ref="BJ4:BP4"/>
+    <mergeCell ref="BJ5:BP5"/>
+    <mergeCell ref="BJ2:BP2"/>
+    <mergeCell ref="BJ3:BP3"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3A80C8-98B2-417A-8959-3B297B361359}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BU101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="2.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" ht="7" customHeight="1" thickBot="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+    </row>
+    <row r="2" spans="1:73" ht="15" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
+      <c r="BJ2" s="60"/>
+      <c r="BK2" s="60"/>
+      <c r="BL2" s="60"/>
+      <c r="BM2" s="60"/>
+      <c r="BN2" s="60"/>
+      <c r="BO2" s="60"/>
+      <c r="BP2" s="60"/>
+      <c r="BQ2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR2" s="9"/>
+      <c r="BS2" s="9"/>
+      <c r="BT2" s="10"/>
+      <c r="BU2" s="6"/>
+    </row>
+    <row r="3" spans="1:73" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="57"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="35"/>
+      <c r="BU3" s="6"/>
+    </row>
+    <row r="4" spans="1:73" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
+      <c r="BP4" s="57"/>
+      <c r="BQ4" s="33"/>
+      <c r="BR4" s="34"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="6"/>
+    </row>
+    <row r="5" spans="1:73" ht="15" customHeight="1" thickBot="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="31"/>
+      <c r="AH5" s="31"/>
+      <c r="AI5" s="31"/>
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="31"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="31"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
+      <c r="BC5" s="25"/>
+      <c r="BD5" s="25"/>
+      <c r="BE5" s="25"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH5" s="58"/>
+      <c r="BI5" s="58"/>
+      <c r="BJ5" s="59"/>
+      <c r="BK5" s="59"/>
+      <c r="BL5" s="59"/>
+      <c r="BM5" s="59"/>
+      <c r="BN5" s="59"/>
+      <c r="BO5" s="59"/>
+      <c r="BP5" s="59"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="38"/>
+      <c r="BU5" s="6"/>
+    </row>
+    <row r="6" spans="1:73" ht="7" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="7"/>
+    </row>
+    <row r="7" spans="1:73">
+      <c r="A7" s="4"/>
+      <c r="BU7" s="6"/>
+    </row>
+    <row r="8" spans="1:73">
+      <c r="A8" s="4"/>
+      <c r="BU8" s="6"/>
+    </row>
+    <row r="9" spans="1:73">
+      <c r="A9" s="4"/>
+      <c r="BU9" s="6"/>
+    </row>
+    <row r="10" spans="1:73">
+      <c r="A10" s="4"/>
+      <c r="BU10" s="6"/>
+    </row>
+    <row r="11" spans="1:73">
+      <c r="A11" s="4"/>
+      <c r="BU11" s="6"/>
+    </row>
+    <row r="12" spans="1:73">
+      <c r="A12" s="4"/>
+      <c r="BU12" s="6"/>
+    </row>
+    <row r="13" spans="1:73">
+      <c r="A13" s="4"/>
+      <c r="BU13" s="6"/>
+    </row>
+    <row r="14" spans="1:73">
+      <c r="A14" s="4"/>
+      <c r="BU14" s="6"/>
+    </row>
+    <row r="15" spans="1:73">
+      <c r="A15" s="4"/>
+      <c r="BU15" s="6"/>
+    </row>
+    <row r="16" spans="1:73">
+      <c r="A16" s="4"/>
+      <c r="BU16" s="6"/>
+    </row>
+    <row r="17" spans="1:73">
+      <c r="A17" s="4"/>
+      <c r="BU17" s="6"/>
+    </row>
+    <row r="18" spans="1:73">
+      <c r="A18" s="4"/>
+      <c r="BU18" s="6"/>
+    </row>
+    <row r="19" spans="1:73">
+      <c r="A19" s="4"/>
+      <c r="BU19" s="6"/>
+    </row>
+    <row r="20" spans="1:73">
+      <c r="A20" s="4"/>
+      <c r="BU20" s="6"/>
+    </row>
+    <row r="21" spans="1:73">
+      <c r="A21" s="4"/>
+      <c r="BU21" s="6"/>
+    </row>
+    <row r="22" spans="1:73">
+      <c r="A22" s="4"/>
+      <c r="BU22" s="6"/>
+    </row>
+    <row r="23" spans="1:73">
+      <c r="A23" s="4"/>
+      <c r="BU23" s="6"/>
+    </row>
+    <row r="24" spans="1:73">
+      <c r="A24" s="4"/>
+      <c r="BU24" s="6"/>
+    </row>
+    <row r="25" spans="1:73">
+      <c r="A25" s="4"/>
+      <c r="BU25" s="6"/>
+    </row>
+    <row r="26" spans="1:73">
+      <c r="A26" s="4"/>
+      <c r="BU26" s="6"/>
+    </row>
+    <row r="27" spans="1:73">
+      <c r="A27" s="4"/>
+      <c r="BU27" s="6"/>
+    </row>
+    <row r="28" spans="1:73">
+      <c r="A28" s="4"/>
+      <c r="BU28" s="6"/>
+    </row>
+    <row r="29" spans="1:73">
+      <c r="A29" s="4"/>
+      <c r="BU29" s="6"/>
+    </row>
+    <row r="30" spans="1:73">
+      <c r="A30" s="4"/>
+      <c r="BU30" s="6"/>
+    </row>
+    <row r="31" spans="1:73">
+      <c r="A31" s="4"/>
+      <c r="BU31" s="6"/>
+    </row>
+    <row r="32" spans="1:73">
+      <c r="A32" s="4"/>
+      <c r="BU32" s="6"/>
+    </row>
+    <row r="33" spans="1:73">
+      <c r="A33" s="4"/>
+      <c r="BU33" s="6"/>
+    </row>
+    <row r="34" spans="1:73">
+      <c r="A34" s="4"/>
+      <c r="BU34" s="6"/>
+    </row>
+    <row r="35" spans="1:73">
+      <c r="A35" s="4"/>
+      <c r="BU35" s="6"/>
+    </row>
+    <row r="36" spans="1:73">
+      <c r="A36" s="4"/>
+      <c r="BU36" s="6"/>
+    </row>
+    <row r="37" spans="1:73">
+      <c r="A37" s="4"/>
+      <c r="BU37" s="6"/>
+    </row>
+    <row r="38" spans="1:73">
+      <c r="A38" s="4"/>
+      <c r="BU38" s="6"/>
+    </row>
+    <row r="39" spans="1:73">
+      <c r="A39" s="4"/>
+      <c r="BU39" s="6"/>
+    </row>
+    <row r="40" spans="1:73">
+      <c r="A40" s="4"/>
+      <c r="BU40" s="6"/>
+    </row>
+    <row r="41" spans="1:73">
+      <c r="A41" s="4"/>
+      <c r="BU41" s="6"/>
+    </row>
+    <row r="42" spans="1:73">
+      <c r="A42" s="4"/>
+      <c r="BU42" s="6"/>
+    </row>
+    <row r="43" spans="1:73">
+      <c r="A43" s="4"/>
+      <c r="BU43" s="6"/>
+    </row>
+    <row r="44" spans="1:73">
+      <c r="A44" s="4"/>
+      <c r="BU44" s="6"/>
+    </row>
+    <row r="45" spans="1:73">
+      <c r="A45" s="4"/>
+      <c r="BU45" s="6"/>
+    </row>
+    <row r="46" spans="1:73">
+      <c r="A46" s="4"/>
+      <c r="BU46" s="6"/>
+    </row>
+    <row r="47" spans="1:73">
+      <c r="A47" s="4"/>
+      <c r="BU47" s="6"/>
+    </row>
+    <row r="48" spans="1:73">
+      <c r="A48" s="4"/>
+      <c r="BU48" s="6"/>
+    </row>
+    <row r="49" spans="1:73">
+      <c r="A49" s="4"/>
+      <c r="BU49" s="6"/>
+    </row>
+    <row r="50" spans="1:73">
+      <c r="A50" s="4"/>
+      <c r="BU50" s="6"/>
+    </row>
+    <row r="51" spans="1:73">
+      <c r="A51" s="4"/>
+      <c r="BU51" s="6"/>
+    </row>
+    <row r="52" spans="1:73" ht="15.5" thickBot="1">
+      <c r="A52" s="4"/>
+      <c r="BU52" s="6"/>
+    </row>
+    <row r="53" spans="1:73">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
+      <c r="BK53" s="5"/>
+      <c r="BL53" s="5"/>
+      <c r="BM53" s="5"/>
+      <c r="BN53" s="5"/>
+      <c r="BO53" s="5"/>
+      <c r="BP53" s="5"/>
+      <c r="BQ53" s="5"/>
+      <c r="BR53" s="5"/>
+      <c r="BS53" s="5"/>
+      <c r="BT53" s="5"/>
+    </row>
+    <row r="54" spans="1:73" ht="7" customHeight="1" thickBot="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AU54" s="2"/>
+      <c r="AV54" s="2"/>
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="2"/>
+      <c r="BE54" s="2"/>
+      <c r="BF54" s="2"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="2"/>
+      <c r="BI54" s="2"/>
+      <c r="BJ54" s="2"/>
+      <c r="BK54" s="2"/>
+      <c r="BL54" s="2"/>
+      <c r="BM54" s="2"/>
+      <c r="BN54" s="2"/>
+      <c r="BO54" s="2"/>
+      <c r="BP54" s="2"/>
+      <c r="BQ54" s="2"/>
+      <c r="BR54" s="2"/>
+      <c r="BS54" s="2"/>
+      <c r="BT54" s="2"/>
+      <c r="BU54" s="7"/>
+    </row>
+    <row r="55" spans="1:73">
+      <c r="A55" s="4"/>
+      <c r="BU55" s="6"/>
+    </row>
+    <row r="56" spans="1:73">
+      <c r="A56" s="4"/>
+      <c r="BU56" s="6"/>
+    </row>
+    <row r="57" spans="1:73">
+      <c r="A57" s="4"/>
+      <c r="BU57" s="6"/>
+    </row>
+    <row r="58" spans="1:73">
+      <c r="A58" s="4"/>
+      <c r="BU58" s="6"/>
+    </row>
+    <row r="59" spans="1:73">
+      <c r="A59" s="4"/>
+      <c r="BU59" s="6"/>
+    </row>
+    <row r="60" spans="1:73">
+      <c r="A60" s="4"/>
+      <c r="BU60" s="6"/>
+    </row>
+    <row r="61" spans="1:73">
+      <c r="A61" s="4"/>
+      <c r="BU61" s="6"/>
+    </row>
+    <row r="62" spans="1:73">
+      <c r="A62" s="4"/>
+      <c r="BU62" s="6"/>
+    </row>
+    <row r="63" spans="1:73">
+      <c r="A63" s="4"/>
+      <c r="BU63" s="6"/>
+    </row>
+    <row r="64" spans="1:73">
+      <c r="A64" s="4"/>
+      <c r="BU64" s="6"/>
+    </row>
+    <row r="65" spans="1:73">
+      <c r="A65" s="4"/>
+      <c r="BU65" s="6"/>
+    </row>
+    <row r="66" spans="1:73">
+      <c r="A66" s="4"/>
+      <c r="BU66" s="6"/>
+    </row>
+    <row r="67" spans="1:73">
+      <c r="A67" s="4"/>
+      <c r="BU67" s="6"/>
+    </row>
+    <row r="68" spans="1:73">
+      <c r="A68" s="4"/>
+      <c r="BU68" s="6"/>
+    </row>
+    <row r="69" spans="1:73">
+      <c r="A69" s="4"/>
+      <c r="BU69" s="6"/>
+    </row>
+    <row r="70" spans="1:73">
+      <c r="A70" s="4"/>
+      <c r="BU70" s="6"/>
+    </row>
+    <row r="71" spans="1:73">
+      <c r="A71" s="4"/>
+      <c r="BU71" s="6"/>
+    </row>
+    <row r="72" spans="1:73">
+      <c r="A72" s="4"/>
+      <c r="BU72" s="6"/>
+    </row>
+    <row r="73" spans="1:73">
+      <c r="A73" s="4"/>
+      <c r="BU73" s="6"/>
+    </row>
+    <row r="74" spans="1:73">
+      <c r="A74" s="4"/>
+      <c r="BU74" s="6"/>
+    </row>
+    <row r="75" spans="1:73">
+      <c r="A75" s="4"/>
+      <c r="BU75" s="6"/>
+    </row>
+    <row r="76" spans="1:73">
+      <c r="A76" s="4"/>
+      <c r="BU76" s="6"/>
+    </row>
+    <row r="77" spans="1:73">
+      <c r="A77" s="4"/>
+      <c r="BU77" s="6"/>
+    </row>
+    <row r="78" spans="1:73">
+      <c r="A78" s="4"/>
+      <c r="BU78" s="6"/>
+    </row>
+    <row r="79" spans="1:73">
+      <c r="A79" s="4"/>
+      <c r="BU79" s="6"/>
+    </row>
+    <row r="80" spans="1:73">
+      <c r="A80" s="4"/>
+      <c r="BU80" s="6"/>
+    </row>
+    <row r="81" spans="1:73">
+      <c r="A81" s="4"/>
+      <c r="BU81" s="6"/>
+    </row>
+    <row r="82" spans="1:73">
+      <c r="A82" s="4"/>
+      <c r="BU82" s="6"/>
+    </row>
+    <row r="83" spans="1:73">
+      <c r="A83" s="4"/>
+      <c r="BU83" s="6"/>
+    </row>
+    <row r="84" spans="1:73">
+      <c r="A84" s="4"/>
+      <c r="BU84" s="6"/>
+    </row>
+    <row r="85" spans="1:73">
+      <c r="A85" s="4"/>
+      <c r="BU85" s="6"/>
+    </row>
+    <row r="86" spans="1:73">
+      <c r="A86" s="4"/>
+      <c r="BU86" s="6"/>
+    </row>
+    <row r="87" spans="1:73">
+      <c r="A87" s="4"/>
+      <c r="BU87" s="6"/>
+    </row>
+    <row r="88" spans="1:73">
+      <c r="A88" s="4"/>
+      <c r="BU88" s="6"/>
+    </row>
+    <row r="89" spans="1:73">
+      <c r="A89" s="4"/>
+      <c r="BU89" s="6"/>
+    </row>
+    <row r="90" spans="1:73">
+      <c r="A90" s="4"/>
+      <c r="BU90" s="6"/>
+    </row>
+    <row r="91" spans="1:73">
+      <c r="A91" s="4"/>
+      <c r="BU91" s="6"/>
+    </row>
+    <row r="92" spans="1:73">
+      <c r="A92" s="4"/>
+      <c r="BU92" s="6"/>
+    </row>
+    <row r="93" spans="1:73">
+      <c r="A93" s="4"/>
+      <c r="BU93" s="6"/>
+    </row>
+    <row r="94" spans="1:73">
+      <c r="A94" s="4"/>
+      <c r="BU94" s="6"/>
+    </row>
+    <row r="95" spans="1:73">
+      <c r="A95" s="4"/>
+      <c r="BU95" s="6"/>
+    </row>
+    <row r="96" spans="1:73">
+      <c r="A96" s="4"/>
+      <c r="BU96" s="6"/>
+    </row>
+    <row r="97" spans="1:73">
+      <c r="A97" s="4"/>
+      <c r="BU97" s="6"/>
+    </row>
+    <row r="98" spans="1:73">
+      <c r="A98" s="4"/>
+      <c r="BU98" s="6"/>
+    </row>
+    <row r="99" spans="1:73">
+      <c r="A99" s="4"/>
+      <c r="BU99" s="6"/>
+    </row>
+    <row r="100" spans="1:73" ht="15.5" thickBot="1">
+      <c r="A100" s="4"/>
+      <c r="BU100" s="6"/>
+    </row>
+    <row r="101" spans="1:73">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
+      <c r="Y101" s="5"/>
+      <c r="Z101" s="5"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="5"/>
+      <c r="AF101" s="5"/>
+      <c r="AG101" s="5"/>
+      <c r="AH101" s="5"/>
+      <c r="AI101" s="5"/>
+      <c r="AJ101" s="5"/>
+      <c r="AK101" s="5"/>
+      <c r="AL101" s="5"/>
+      <c r="AM101" s="5"/>
+      <c r="AN101" s="5"/>
+      <c r="AO101" s="5"/>
+      <c r="AP101" s="5"/>
+      <c r="AQ101" s="5"/>
+      <c r="AR101" s="5"/>
+      <c r="AS101" s="5"/>
+      <c r="AT101" s="5"/>
+      <c r="AU101" s="5"/>
+      <c r="AV101" s="5"/>
+      <c r="AW101" s="5"/>
+      <c r="AX101" s="5"/>
+      <c r="AY101" s="5"/>
+      <c r="AZ101" s="5"/>
+      <c r="BA101" s="5"/>
+      <c r="BB101" s="5"/>
+      <c r="BC101" s="5"/>
+      <c r="BD101" s="5"/>
+      <c r="BE101" s="5"/>
+      <c r="BF101" s="5"/>
+      <c r="BG101" s="5"/>
+      <c r="BH101" s="5"/>
+      <c r="BI101" s="5"/>
+      <c r="BJ101" s="5"/>
+      <c r="BK101" s="5"/>
+      <c r="BL101" s="5"/>
+      <c r="BM101" s="5"/>
+      <c r="BN101" s="5"/>
+      <c r="BO101" s="5"/>
+      <c r="BP101" s="5"/>
+      <c r="BQ101" s="5"/>
+      <c r="BR101" s="5"/>
+      <c r="BS101" s="5"/>
+      <c r="BT101" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="BJ4:BP4"/>
     <mergeCell ref="BG5:BI5"/>
     <mergeCell ref="BJ5:BP5"/>
+    <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="BJ2:BP2"/>
     <mergeCell ref="BG3:BI3"/>
     <mergeCell ref="BJ3:BP3"/>
     <mergeCell ref="BQ3:BT5"/>
     <mergeCell ref="B4:F5"/>
     <mergeCell ref="G4:V5"/>
-    <mergeCell ref="W4:AM5"/>
-    <mergeCell ref="AN4:AR5"/>
-    <mergeCell ref="AS4:BF5"/>
-    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="W4:AN5"/>
+    <mergeCell ref="AO4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
     <mergeCell ref="B2:F3"/>
     <mergeCell ref="G2:V3"/>
-    <mergeCell ref="W2:AM3"/>
-    <mergeCell ref="AN2:AR3"/>
-    <mergeCell ref="AS2:BF3"/>
-    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="W2:AA3"/>
+    <mergeCell ref="AB2:AN3"/>
+    <mergeCell ref="AO2:AS3"/>
+    <mergeCell ref="AT2:BF3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.62992125984251968" footer="0.31496062992125984"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;14P.&amp;P/&amp;N　　　</oddHeader>
